--- a/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
+++ b/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\1-data-understanding\1-input\support\homeworking-pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\1-data-understanding\1-input\support\homeworking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F972FB-25C7-4EA5-AEC2-59C5815D9CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18718A97-1897-4E45-A064-E5C0AAF1E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
   <si>
     <t>Juan</t>
   </si>
@@ -808,6 +808,30 @@
   </si>
   <si>
     <t>Cuadros</t>
+  </si>
+  <si>
+    <t>Teodoro</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Luyo</t>
+  </si>
+  <si>
+    <t>Ever</t>
+  </si>
+  <si>
+    <t>Yalico</t>
+  </si>
+  <si>
+    <t>Angeli</t>
+  </si>
+  <si>
+    <t>Velasquez</t>
   </si>
 </sst>
 </file>
@@ -872,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +905,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1164,12 +1194,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,11 +1712,15 @@
       <c r="A38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2259,6 +2293,40 @@
       <c r="D80" s="3" t="s">
         <v>139</v>
       </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D39" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}"/>

--- a/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
+++ b/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\1-data-understanding\1-input\support\homeworking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18718A97-1897-4E45-A064-E5C0AAF1E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A74D2-6DB0-4763-8515-F63DF9808C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Original" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="273">
   <si>
     <t>Juan</t>
   </si>
@@ -832,6 +832,30 @@
   </si>
   <si>
     <t>Velasquez</t>
+  </si>
+  <si>
+    <t>Yeniffer</t>
+  </si>
+  <si>
+    <t>Josefina</t>
+  </si>
+  <si>
+    <t>Rada</t>
+  </si>
+  <si>
+    <t>Morillo</t>
+  </si>
+  <si>
+    <t>Jery</t>
+  </si>
+  <si>
+    <t>Osnayo</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Bernuy</t>
   </si>
 </sst>
 </file>
@@ -907,10 +931,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1194,12 +1218,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,143 +1316,145 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>199</v>
       </c>
@@ -1438,898 +1464,948 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>2</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>226</v>
+        <v>114</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C75" s="3" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D39" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}"/>
+  <autoFilter ref="A1:D40" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
+++ b/1-data-understanding/1-input/support/homeworking/homeworking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\1-data-understanding\1-input\support\homeworking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A74D2-6DB0-4763-8515-F63DF9808C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661EB8-7D2B-40F2-8EB1-CF2A7C9875FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="305">
   <si>
     <t>Juan</t>
   </si>
@@ -856,6 +856,102 @@
   </si>
   <si>
     <t>Bernuy</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Sotelo</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Jazmin</t>
+  </si>
+  <si>
+    <t>Regalado</t>
+  </si>
+  <si>
+    <t>Cabello</t>
+  </si>
+  <si>
+    <t>Percy</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Gianfranco</t>
+  </si>
+  <si>
+    <t>Avalos</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Sandoval</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Guillen</t>
+  </si>
+  <si>
+    <t>Huarcaya</t>
+  </si>
+  <si>
+    <t>Arguedas</t>
+  </si>
+  <si>
+    <t>Quiñonez</t>
+  </si>
+  <si>
+    <t>Danmert</t>
+  </si>
+  <si>
+    <t>Jonelly</t>
+  </si>
+  <si>
+    <t>Costilla</t>
+  </si>
+  <si>
+    <t>Claros</t>
+  </si>
+  <si>
+    <t>Rodail</t>
+  </si>
+  <si>
+    <t>Rugel</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Reyes</t>
   </si>
 </sst>
 </file>
@@ -920,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,12 +1025,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1218,12 +1308,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,10 +2489,150 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D40" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}"/>
